--- a/fort_troop_types_by_nation.xlsx
+++ b/fort_troop_types_by_nation.xlsx
@@ -384,10 +384,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C711"/>
+  <dimension ref="A1:C712"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3958,6 +3959,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A712">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
